--- a/different_costs-grid-multiple_destination-100nodes-80_300flows.xlsx
+++ b/different_costs-grid-multiple_destination-100nodes-80_300flows.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Dropbox\doutorado\Doutorado\A-orientacao-kleber\artigo1-katia-leizer-kleber\resultados\resultados-custos-diferentes\data\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Documents\GitHub\article-2018-leizerkatiakleber-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9B599BC7-B5C1-4AA2-8B74-7A284EB5CEBF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5F654E7E-6512-4593-ABC8-824273E0EF12}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="different_costs-grid-multiple_d" sheetId="1" r:id="rId1"/>
+    <sheet name="graphics" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -631,6 +632,319 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31751</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>594083</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>50517</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418B84A9-3635-4AB7-B6E7-F54039B25FC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="642939" y="5667376"/>
+          <a:ext cx="4840644" cy="3328704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>341312</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>413452</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B24808B-AC0F-47EA-B6A6-9FDAC3318C89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5842000" y="5683250"/>
+          <a:ext cx="5572827" cy="3349625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25488</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>181893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagem 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3781C65C-0A0E-487C-B7F1-44E35AF0807B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="603250" y="206375"/>
+          <a:ext cx="6145301" cy="3261643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>118246</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagem 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA00F02F-B686-4821-9391-6E100824EF68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7358063" y="158750"/>
+          <a:ext cx="3761558" cy="5346655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>148421</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagem 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E499B5F-3B66-466A-9CDB-4B77FFC2DC50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11628437" y="174625"/>
+          <a:ext cx="3188484" cy="3706689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>409876</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>110975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagem 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41377B1-81E7-4AA8-A6FE-22D9529DF1C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="611188" y="9310688"/>
+          <a:ext cx="7132938" cy="4127350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>321498</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>31720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagem 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F41D7B8-67B7-4FB9-8E1C-7DF86C3AAA26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7945438" y="9310688"/>
+          <a:ext cx="5822185" cy="4048095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -930,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M105" sqref="M105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6311,4 +6625,19 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B333411C-0CB2-47D6-96DF-FC204C4FD279}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q77" sqref="Q77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/different_costs-grid-multiple_destination-100nodes-80_300flows.xlsx
+++ b/different_costs-grid-multiple_destination-100nodes-80_300flows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kátia Fernandes\Documents\GitHub\article-2018-leizerkatiakleber-dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5F654E7E-6512-4593-ABC8-824273E0EF12}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{56F12713-F5CC-4BCB-A06C-6278D778097B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -942,6 +942,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>602828</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B697DE21-56E6-4F71-B234-73C1E8A03BB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15176500" y="166688"/>
+          <a:ext cx="6206703" cy="3730625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6631,8 +6675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B333411C-0CB2-47D6-96DF-FC204C4FD279}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q77" sqref="Q77"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
